--- a/backup.xlsx
+++ b/backup.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="tweaked" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,13 +1589,13 @@
         <v>90</v>
       </c>
       <c r="B35">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>14</v>
       </c>
       <c r="D35">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <v>104</v>
